--- a/keymap.xlsx
+++ b/keymap.xlsx
@@ -8,11 +8,11 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="tenkiless" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="tenkeyless" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="tmp" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">tenkiless!$A$1:$J$88</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">tenkeyless!$A$1:$J$88</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="635">
   <si>
     <t xml:space="preserve">KEY</t>
   </si>
@@ -942,6 +942,24 @@
   </si>
   <si>
     <t xml:space="preserve">N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f</t>
   </si>
   <si>
     <t xml:space="preserve">1C</t>
@@ -1920,11 +1938,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK JP"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1948,6 +1967,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Noto Sans CJK JP"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1961,6 +1981,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="HelveticaNeue-Bold"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCE181E"/>
       <name val="HelveticaNeue-Bold"/>
       <family val="0"/>
       <charset val="1"/>
@@ -2026,7 +2053,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2047,6 +2074,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -2060,7 +2091,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCE181E"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -2128,16 +2159,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J88"/>
+  <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E93" activeCellId="0" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="11.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="41.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="41.42"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.54"/>
   </cols>
   <sheetData>
@@ -4458,7 +4489,7 @@
       <c r="F73" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="G73" s="3" t="s">
+      <c r="G73" s="5" t="s">
         <v>248</v>
       </c>
       <c r="H73" s="3" t="s">
@@ -4467,7 +4498,7 @@
       <c r="I73" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J73" s="3" t="s">
+      <c r="J73" s="5" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4938,7 +4969,7 @@
       <c r="F88" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="G88" s="3" t="s">
+      <c r="G88" s="5" t="s">
         <v>304</v>
       </c>
       <c r="H88" s="3" t="s">
@@ -4949,6 +4980,59 @@
       </c>
       <c r="J88" s="3" t="s">
         <v>305</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -5011,7 +5095,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>105</v>
@@ -5020,7 +5104,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>13</v>
@@ -5034,7 +5118,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>128</v>
@@ -5043,7 +5127,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>13</v>
@@ -5057,7 +5141,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>145</v>
@@ -5066,7 +5150,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>13</v>
@@ -5080,7 +5164,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>156</v>
@@ -5089,7 +5173,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>13</v>
@@ -5103,7 +5187,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>158</v>
@@ -5112,7 +5196,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>13</v>
@@ -5126,7 +5210,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>170</v>
@@ -5135,7 +5219,7 @@
         <v>12</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>13</v>
@@ -5149,7 +5233,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>85</v>
@@ -5158,7 +5242,7 @@
         <v>12</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>13</v>
@@ -5172,7 +5256,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>134</v>
@@ -5181,7 +5265,7 @@
         <v>12</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>13</v>
@@ -5195,7 +5279,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>92</v>
@@ -5204,7 +5288,7 @@
         <v>12</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>13</v>
@@ -5218,7 +5302,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>98</v>
@@ -5227,7 +5311,7 @@
         <v>12</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>13</v>
@@ -5241,7 +5325,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>101</v>
@@ -5250,7 +5334,7 @@
         <v>12</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>13</v>
@@ -5264,7 +5348,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>120</v>
@@ -5273,7 +5357,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>13</v>
@@ -5287,16 +5371,16 @@
         <v>8</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>13</v>
@@ -5310,16 +5394,16 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>13</v>
@@ -5333,16 +5417,16 @@
         <v>8</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>13</v>
@@ -5356,16 +5440,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>13</v>
@@ -5379,16 +5463,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>13</v>
@@ -5402,16 +5486,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>13</v>
@@ -5425,16 +5509,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>13</v>
@@ -5448,16 +5532,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>13</v>
@@ -5471,16 +5555,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>13</v>
@@ -5494,16 +5578,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>13</v>
@@ -5517,16 +5601,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>13</v>
@@ -5540,16 +5624,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>13</v>
@@ -5563,16 +5647,16 @@
         <v>8</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>13</v>
@@ -5586,16 +5670,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>13</v>
@@ -5609,16 +5693,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>13</v>
@@ -5632,16 +5716,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>13</v>
@@ -5655,16 +5739,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>13</v>
@@ -5678,16 +5762,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>13</v>
@@ -5701,16 +5785,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>13</v>
@@ -5724,16 +5808,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>13</v>
@@ -5747,16 +5831,16 @@
         <v>8</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>13</v>
@@ -5770,16 +5854,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>13</v>
@@ -5791,16 +5875,16 @@
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>13</v>
@@ -5812,16 +5896,16 @@
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>13</v>
@@ -5833,16 +5917,16 @@
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>13</v>
@@ -5854,16 +5938,16 @@
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>13</v>
@@ -5875,16 +5959,16 @@
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>13</v>
@@ -5896,16 +5980,16 @@
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>13</v>
@@ -5917,16 +6001,16 @@
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>13</v>
@@ -5938,16 +6022,16 @@
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>13</v>
@@ -5959,16 +6043,16 @@
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>13</v>
@@ -5980,16 +6064,16 @@
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>13</v>
@@ -6001,7 +6085,7 @@
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>23</v>
@@ -6010,7 +6094,7 @@
         <v>12</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>6</v>
@@ -6022,16 +6106,16 @@
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>39</v>
@@ -6043,7 +6127,7 @@
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>19</v>
@@ -6052,7 +6136,7 @@
         <v>12</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>258</v>
@@ -6064,7 +6148,7 @@
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>27</v>
@@ -6073,7 +6157,7 @@
         <v>12</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>62</v>
@@ -6085,7 +6169,7 @@
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>15</v>
@@ -6094,7 +6178,7 @@
         <v>12</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>212</v>
@@ -6106,7 +6190,7 @@
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>47</v>
@@ -6115,7 +6199,7 @@
         <v>12</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>253</v>
@@ -6127,7 +6211,7 @@
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>238</v>
@@ -6136,7 +6220,7 @@
         <v>12</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>263</v>
@@ -6148,7 +6232,7 @@
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>43</v>
@@ -6157,7 +6241,7 @@
         <v>12</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>245</v>
@@ -6169,16 +6253,16 @@
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>13</v>
@@ -6190,16 +6274,16 @@
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>13</v>
@@ -6211,16 +6295,16 @@
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="4" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>13</v>
@@ -6235,13 +6319,13 @@
         <v>128</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>13</v>
@@ -6256,13 +6340,13 @@
         <v>145</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>13</v>
@@ -6277,13 +6361,13 @@
         <v>105</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>13</v>
@@ -6295,16 +6379,16 @@
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="4" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>13</v>
@@ -6319,13 +6403,13 @@
         <v>108</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>13</v>
@@ -6337,16 +6421,16 @@
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="4" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>13</v>
@@ -6358,16 +6442,16 @@
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>13</v>
@@ -6379,16 +6463,16 @@
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="4" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>13</v>
@@ -6403,13 +6487,13 @@
         <v>8</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>13</v>
@@ -6424,13 +6508,13 @@
         <v>170</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>13</v>
@@ -6442,16 +6526,16 @@
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>13</v>
@@ -6466,13 +6550,13 @@
         <v>156</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>13</v>
@@ -6484,16 +6568,16 @@
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>13</v>
@@ -6505,16 +6589,16 @@
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="4" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>13</v>
@@ -6526,16 +6610,16 @@
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>13</v>
@@ -6547,16 +6631,16 @@
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>13</v>
@@ -6568,16 +6652,16 @@
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>13</v>
@@ -6589,16 +6673,16 @@
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="4" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>13</v>
@@ -6610,16 +6694,16 @@
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>13</v>
@@ -6631,16 +6715,16 @@
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="4" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>13</v>
@@ -6652,16 +6736,16 @@
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>13</v>
@@ -6673,16 +6757,16 @@
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="4" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>13</v>
@@ -6694,16 +6778,16 @@
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>13</v>
@@ -6715,16 +6799,16 @@
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="4" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>13</v>
@@ -6736,16 +6820,16 @@
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>13</v>
@@ -6757,16 +6841,16 @@
       </c>
       <c r="B82" s="4"/>
       <c r="C82" s="4" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>13</v>
@@ -6774,20 +6858,20 @@
     </row>
     <row r="83" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>13</v>
@@ -6795,20 +6879,20 @@
     </row>
     <row r="84" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="4" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>13</v>
@@ -6816,20 +6900,20 @@
     </row>
     <row r="85" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>13</v>
@@ -6837,20 +6921,20 @@
     </row>
     <row r="86" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="4" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>13</v>
@@ -6858,20 +6942,20 @@
     </row>
     <row r="87" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>13</v>
@@ -6879,20 +6963,20 @@
     </row>
     <row r="88" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="4" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>13</v>
@@ -6900,20 +6984,20 @@
     </row>
     <row r="89" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>13</v>
@@ -6921,20 +7005,20 @@
     </row>
     <row r="90" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>13</v>
@@ -6942,20 +7026,20 @@
     </row>
     <row r="91" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>13</v>
@@ -6963,20 +7047,20 @@
     </row>
     <row r="92" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="B92" s="4"/>
       <c r="C92" s="4" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>13</v>
@@ -6984,20 +7068,20 @@
     </row>
     <row r="93" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>13</v>
@@ -7005,20 +7089,20 @@
     </row>
     <row r="94" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="B94" s="4"/>
       <c r="C94" s="4" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>13</v>
@@ -7026,20 +7110,20 @@
     </row>
     <row r="95" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="3" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>13</v>
@@ -7047,20 +7131,20 @@
     </row>
     <row r="96" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="B96" s="4"/>
       <c r="C96" s="4" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>13</v>
@@ -7068,20 +7152,20 @@
     </row>
     <row r="97" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>13</v>
@@ -7089,20 +7173,20 @@
     </row>
     <row r="98" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="B98" s="4"/>
       <c r="C98" s="4" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="G98" s="4" t="s">
         <v>13</v>
@@ -7110,20 +7194,20 @@
     </row>
     <row r="99" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="B99" s="3"/>
       <c r="C99" s="3" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>13</v>
@@ -7135,16 +7219,16 @@
       </c>
       <c r="B100" s="4"/>
       <c r="C100" s="4" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="G100" s="4" t="s">
         <v>13</v>
@@ -7156,16 +7240,16 @@
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="3" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>13</v>
@@ -7177,16 +7261,16 @@
       </c>
       <c r="B102" s="4"/>
       <c r="C102" s="4" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>13</v>
@@ -7198,16 +7282,16 @@
       </c>
       <c r="B103" s="3"/>
       <c r="C103" s="3" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="G103" s="3" t="s">
         <v>13</v>
@@ -7219,16 +7303,16 @@
       </c>
       <c r="B104" s="4"/>
       <c r="C104" s="4" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>13</v>
@@ -7240,16 +7324,16 @@
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="3" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>13</v>
@@ -7257,20 +7341,20 @@
     </row>
     <row r="106" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="B106" s="4"/>
       <c r="C106" s="4" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>13</v>
@@ -7278,20 +7362,20 @@
     </row>
     <row r="107" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="3" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="G107" s="3" t="s">
         <v>13</v>
@@ -7299,20 +7383,20 @@
     </row>
     <row r="108" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="B108" s="4"/>
       <c r="C108" s="4" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>13</v>
@@ -7320,20 +7404,20 @@
     </row>
     <row r="109" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="3" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="B109" s="3"/>
       <c r="C109" s="3" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="G109" s="3" t="s">
         <v>13</v>
@@ -7341,20 +7425,20 @@
     </row>
     <row r="110" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="B110" s="4"/>
       <c r="C110" s="4" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="G110" s="4" t="s">
         <v>13</v>
@@ -7362,20 +7446,20 @@
     </row>
     <row r="111" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="3" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="G111" s="3" t="s">
         <v>13</v>
@@ -7383,20 +7467,20 @@
     </row>
     <row r="112" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="B112" s="4"/>
       <c r="C112" s="4" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="E112" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="G112" s="4" t="s">
         <v>13</v>
@@ -7404,20 +7488,20 @@
     </row>
     <row r="113" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="3" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="B113" s="3"/>
       <c r="C113" s="3" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>13</v>
@@ -7425,20 +7509,20 @@
     </row>
     <row r="114" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="B114" s="4"/>
       <c r="C114" s="4" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="G114" s="4" t="s">
         <v>13</v>
@@ -7446,20 +7530,20 @@
     </row>
     <row r="115" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="3" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="B115" s="3"/>
       <c r="C115" s="3" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>13</v>
@@ -7467,18 +7551,18 @@
     </row>
     <row r="116" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="B116" s="4"/>
       <c r="C116" s="4" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="G116" s="4" t="s">
         <v>13</v>
@@ -7486,18 +7570,18 @@
     </row>
     <row r="117" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="3" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="B117" s="3"/>
       <c r="C117" s="3" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="D117" s="3"/>
       <c r="E117" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>13</v>
@@ -7505,18 +7589,18 @@
     </row>
     <row r="118" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="4" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="B118" s="4"/>
       <c r="C118" s="4" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="D118" s="4"/>
       <c r="E118" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="G118" s="4" t="s">
         <v>13</v>
@@ -7524,18 +7608,18 @@
     </row>
     <row r="119" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="3" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="B119" s="3"/>
       <c r="C119" s="3" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="G119" s="3" t="s">
         <v>13</v>
@@ -7543,18 +7627,18 @@
     </row>
     <row r="120" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="4" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="B120" s="4"/>
       <c r="C120" s="4" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="D120" s="4"/>
       <c r="E120" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="G120" s="4" t="s">
         <v>13</v>
@@ -7562,18 +7646,18 @@
     </row>
     <row r="121" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="3" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="B121" s="3"/>
       <c r="C121" s="3" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="G121" s="3" t="s">
         <v>13</v>
@@ -7581,18 +7665,18 @@
     </row>
     <row r="122" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="4" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="B122" s="4"/>
       <c r="C122" s="4" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="D122" s="4"/>
       <c r="E122" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="G122" s="4" t="s">
         <v>13</v>
@@ -7600,18 +7684,18 @@
     </row>
     <row r="123" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="3" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="B123" s="3"/>
       <c r="C123" s="3" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>13</v>
@@ -7619,18 +7703,18 @@
     </row>
     <row r="124" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="4" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="B124" s="4"/>
       <c r="C124" s="4" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="G124" s="4" t="s">
         <v>13</v>
@@ -7638,18 +7722,18 @@
     </row>
     <row r="125" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="3" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="3" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>13</v>
@@ -7657,18 +7741,18 @@
     </row>
     <row r="126" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="B126" s="4"/>
       <c r="C126" s="4" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="D126" s="4"/>
       <c r="E126" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="G126" s="4" t="s">
         <v>13</v>

--- a/keymap.xlsx
+++ b/keymap.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="636">
   <si>
     <t xml:space="preserve">KEY</t>
   </si>
@@ -960,6 +960,9 @@
   </si>
   <si>
     <t xml:space="preserve">f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDX</t>
   </si>
   <si>
     <t xml:space="preserve">1C</t>
@@ -2165,9 +2168,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2330640</xdr:colOff>
+      <xdr:colOff>2330280</xdr:colOff>
       <xdr:row>102</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>28440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2181,7 +2184,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="813960" y="14541480"/>
-          <a:ext cx="6400800" cy="2142720"/>
+          <a:ext cx="6400440" cy="2142360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2201,10 +2204,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K99"/>
+  <dimension ref="A1:K116"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A99" activeCellId="0" sqref="A99"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F111" activeCellId="0" sqref="F111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5098,6 +5101,82 @@
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K99" s="0" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="0" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B110" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B111" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B112" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B113" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B114" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B115" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -5160,7 +5239,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>118</v>
@@ -5169,7 +5248,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>13</v>
@@ -5183,7 +5262,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>121</v>
@@ -5192,7 +5271,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>13</v>
@@ -5206,7 +5285,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>124</v>
@@ -5215,7 +5294,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>13</v>
@@ -5229,7 +5308,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>127</v>
@@ -5238,7 +5317,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>13</v>
@@ -5252,7 +5331,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>130</v>
@@ -5261,7 +5340,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>13</v>
@@ -5275,7 +5354,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>133</v>
@@ -5284,7 +5363,7 @@
         <v>12</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>13</v>
@@ -5298,7 +5377,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
@@ -5307,7 +5386,7 @@
         <v>12</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>13</v>
@@ -5321,7 +5400,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>15</v>
@@ -5330,7 +5409,7 @@
         <v>12</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>13</v>
@@ -5344,7 +5423,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>19</v>
@@ -5353,7 +5432,7 @@
         <v>12</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>13</v>
@@ -5367,7 +5446,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>23</v>
@@ -5376,7 +5455,7 @@
         <v>12</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>13</v>
@@ -5390,7 +5469,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>27</v>
@@ -5399,7 +5478,7 @@
         <v>12</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>13</v>
@@ -5413,7 +5492,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>31</v>
@@ -5422,7 +5501,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>13</v>
@@ -5436,16 +5515,16 @@
         <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>13</v>
@@ -5459,16 +5538,16 @@
         <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>13</v>
@@ -5482,16 +5561,16 @@
         <v>8</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>13</v>
@@ -5505,16 +5584,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>13</v>
@@ -5528,16 +5607,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>13</v>
@@ -5551,16 +5630,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>13</v>
@@ -5574,16 +5653,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>13</v>
@@ -5597,16 +5676,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>13</v>
@@ -5620,16 +5699,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>13</v>
@@ -5643,16 +5722,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>13</v>
@@ -5666,16 +5745,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>13</v>
@@ -5689,16 +5768,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>13</v>
@@ -5712,16 +5791,16 @@
         <v>8</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>13</v>
@@ -5735,16 +5814,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>365</v>
-      </c>
       <c r="E27" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>13</v>
@@ -5758,16 +5837,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>13</v>
@@ -5781,16 +5860,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>13</v>
@@ -5804,16 +5883,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>13</v>
@@ -5827,16 +5906,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>13</v>
@@ -5850,16 +5929,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>13</v>
@@ -5873,16 +5952,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>13</v>
@@ -5896,16 +5975,16 @@
         <v>8</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>13</v>
@@ -5919,16 +5998,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>13</v>
@@ -5940,16 +6019,16 @@
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>13</v>
@@ -5961,16 +6040,16 @@
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>13</v>
@@ -5982,16 +6061,16 @@
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>13</v>
@@ -6003,16 +6082,16 @@
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>13</v>
@@ -6024,16 +6103,16 @@
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>13</v>
@@ -6045,16 +6124,16 @@
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>13</v>
@@ -6066,16 +6145,16 @@
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>13</v>
@@ -6087,16 +6166,16 @@
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>13</v>
@@ -6108,16 +6187,16 @@
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>13</v>
@@ -6129,16 +6208,16 @@
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>13</v>
@@ -6150,7 +6229,7 @@
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>193</v>
@@ -6159,7 +6238,7 @@
         <v>12</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>213</v>
@@ -6171,16 +6250,16 @@
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>211</v>
@@ -6192,7 +6271,7 @@
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>197</v>
@@ -6201,7 +6280,7 @@
         <v>12</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>284</v>
@@ -6213,7 +6292,7 @@
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>195</v>
@@ -6222,7 +6301,7 @@
         <v>12</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>279</v>
@@ -6234,7 +6313,7 @@
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>201</v>
@@ -6243,7 +6322,7 @@
         <v>12</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>294</v>
@@ -6255,7 +6334,7 @@
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>199</v>
@@ -6264,7 +6343,7 @@
         <v>12</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>289</v>
@@ -6276,7 +6355,7 @@
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>207</v>
@@ -6285,7 +6364,7 @@
         <v>12</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>304</v>
@@ -6297,7 +6376,7 @@
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>204</v>
@@ -6306,7 +6385,7 @@
         <v>12</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>299</v>
@@ -6318,16 +6397,16 @@
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>13</v>
@@ -6339,16 +6418,16 @@
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>13</v>
@@ -6360,16 +6439,16 @@
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>13</v>
@@ -6384,13 +6463,13 @@
         <v>121</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>13</v>
@@ -6405,13 +6484,13 @@
         <v>124</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>13</v>
@@ -6426,13 +6505,13 @@
         <v>118</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>13</v>
@@ -6444,16 +6523,16 @@
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>13</v>
@@ -6468,13 +6547,13 @@
         <v>114</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>13</v>
@@ -6486,16 +6565,16 @@
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>13</v>
@@ -6507,16 +6586,16 @@
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>13</v>
@@ -6528,16 +6607,16 @@
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>13</v>
@@ -6552,13 +6631,13 @@
         <v>8</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>13</v>
@@ -6573,13 +6652,13 @@
         <v>133</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>13</v>
@@ -6591,16 +6670,16 @@
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>13</v>
@@ -6615,13 +6694,13 @@
         <v>127</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>13</v>
@@ -6633,16 +6712,16 @@
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>13</v>
@@ -6654,16 +6733,16 @@
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>13</v>
@@ -6675,16 +6754,16 @@
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>13</v>
@@ -6696,16 +6775,16 @@
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>13</v>
@@ -6717,16 +6796,16 @@
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>13</v>
@@ -6738,16 +6817,16 @@
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>13</v>
@@ -6759,16 +6838,16 @@
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>13</v>
@@ -6780,16 +6859,16 @@
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>13</v>
@@ -6801,16 +6880,16 @@
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>13</v>
@@ -6822,16 +6901,16 @@
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>13</v>
@@ -6843,16 +6922,16 @@
       </c>
       <c r="B79" s="4"/>
       <c r="C79" s="4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>13</v>
@@ -6864,16 +6943,16 @@
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>13</v>
@@ -6885,16 +6964,16 @@
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>13</v>
@@ -6906,16 +6985,16 @@
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>13</v>
@@ -6923,20 +7002,20 @@
     </row>
     <row r="83" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>13</v>
@@ -6944,20 +7023,20 @@
     </row>
     <row r="84" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>13</v>
@@ -6965,20 +7044,20 @@
     </row>
     <row r="85" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B85" s="4"/>
       <c r="C85" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>13</v>
@@ -6986,20 +7065,20 @@
     </row>
     <row r="86" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>13</v>
@@ -7007,20 +7086,20 @@
     </row>
     <row r="87" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>13</v>
@@ -7028,20 +7107,20 @@
     </row>
     <row r="88" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>13</v>
@@ -7049,20 +7128,20 @@
     </row>
     <row r="89" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B89" s="4"/>
       <c r="C89" s="4" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>13</v>
@@ -7070,20 +7149,20 @@
     </row>
     <row r="90" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>13</v>
@@ -7091,20 +7170,20 @@
     </row>
     <row r="91" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B91" s="4"/>
       <c r="C91" s="4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>13</v>
@@ -7112,20 +7191,20 @@
     </row>
     <row r="92" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>13</v>
@@ -7133,20 +7212,20 @@
     </row>
     <row r="93" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>13</v>
@@ -7154,20 +7233,20 @@
     </row>
     <row r="94" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>13</v>
@@ -7175,20 +7254,20 @@
     </row>
     <row r="95" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="4" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>13</v>
@@ -7196,20 +7275,20 @@
     </row>
     <row r="96" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="3" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>13</v>
@@ -7217,20 +7296,20 @@
     </row>
     <row r="97" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B97" s="4"/>
       <c r="C97" s="4" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>13</v>
@@ -7238,20 +7317,20 @@
     </row>
     <row r="98" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B98" s="3"/>
       <c r="C98" s="3" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>13</v>
@@ -7259,20 +7338,20 @@
     </row>
     <row r="99" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B99" s="4"/>
       <c r="C99" s="4" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G99" s="4" t="s">
         <v>13</v>
@@ -7284,16 +7363,16 @@
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>13</v>
@@ -7305,16 +7384,16 @@
       </c>
       <c r="B101" s="4"/>
       <c r="C101" s="4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G101" s="4" t="s">
         <v>13</v>
@@ -7326,16 +7405,16 @@
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>13</v>
@@ -7347,16 +7426,16 @@
       </c>
       <c r="B103" s="4"/>
       <c r="C103" s="4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>13</v>
@@ -7368,16 +7447,16 @@
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>13</v>
@@ -7389,16 +7468,16 @@
       </c>
       <c r="B105" s="4"/>
       <c r="C105" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>13</v>
@@ -7406,20 +7485,20 @@
     </row>
     <row r="106" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="3" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="3" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>13</v>
@@ -7427,20 +7506,20 @@
     </row>
     <row r="107" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B107" s="4"/>
       <c r="C107" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>13</v>
@@ -7448,20 +7527,20 @@
     </row>
     <row r="108" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="3" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="3" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="G108" s="3" t="s">
         <v>13</v>
@@ -7469,20 +7548,20 @@
     </row>
     <row r="109" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B109" s="4"/>
       <c r="C109" s="4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G109" s="4" t="s">
         <v>13</v>
@@ -7490,20 +7569,20 @@
     </row>
     <row r="110" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="3" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B110" s="3"/>
       <c r="C110" s="3" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="G110" s="3" t="s">
         <v>13</v>
@@ -7511,20 +7590,20 @@
     </row>
     <row r="111" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B111" s="4"/>
       <c r="C111" s="4" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>13</v>
@@ -7532,20 +7611,20 @@
     </row>
     <row r="112" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="3" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B112" s="3"/>
       <c r="C112" s="3" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="G112" s="3" t="s">
         <v>13</v>
@@ -7553,20 +7632,20 @@
     </row>
     <row r="113" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B113" s="4"/>
       <c r="C113" s="4" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E113" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="G113" s="4" t="s">
         <v>13</v>
@@ -7574,20 +7653,20 @@
     </row>
     <row r="114" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="3" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B114" s="3"/>
       <c r="C114" s="3" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="G114" s="3" t="s">
         <v>13</v>
@@ -7595,20 +7674,20 @@
     </row>
     <row r="115" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B115" s="4"/>
       <c r="C115" s="4" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>13</v>
@@ -7616,18 +7695,18 @@
     </row>
     <row r="116" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D116" s="3"/>
       <c r="E116" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="G116" s="3" t="s">
         <v>13</v>
@@ -7635,18 +7714,18 @@
     </row>
     <row r="117" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B117" s="4"/>
       <c r="C117" s="4" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="G117" s="4" t="s">
         <v>13</v>
@@ -7654,18 +7733,18 @@
     </row>
     <row r="118" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="3" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B118" s="3"/>
       <c r="C118" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>13</v>
@@ -7673,18 +7752,18 @@
     </row>
     <row r="119" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B119" s="4"/>
       <c r="C119" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D119" s="4"/>
       <c r="E119" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="G119" s="4" t="s">
         <v>13</v>
@@ -7692,18 +7771,18 @@
     </row>
     <row r="120" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="3" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B120" s="3"/>
       <c r="C120" s="3" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G120" s="3" t="s">
         <v>13</v>
@@ -7711,18 +7790,18 @@
     </row>
     <row r="121" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="4" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B121" s="4"/>
       <c r="C121" s="4" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D121" s="4"/>
       <c r="E121" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>13</v>
@@ -7730,18 +7809,18 @@
     </row>
     <row r="122" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="3" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B122" s="3"/>
       <c r="C122" s="3" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G122" s="3" t="s">
         <v>13</v>
@@ -7749,18 +7828,18 @@
     </row>
     <row r="123" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B123" s="4"/>
       <c r="C123" s="4" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D123" s="4"/>
       <c r="E123" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>13</v>
@@ -7768,18 +7847,18 @@
     </row>
     <row r="124" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="3" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" s="3" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>13</v>
@@ -7787,18 +7866,18 @@
     </row>
     <row r="125" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B125" s="4"/>
       <c r="C125" s="4" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D125" s="4"/>
       <c r="E125" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>13</v>
@@ -7806,18 +7885,18 @@
     </row>
     <row r="126" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="3" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B126" s="3"/>
       <c r="C126" s="3" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="G126" s="3" t="s">
         <v>13</v>
